--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2746.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2746.xlsx
@@ -354,7 +354,7 @@
         <v>2.412941571019317</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368628610575455</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2746.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2746.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158653515941843</v>
+        <v>1.890759587287903</v>
       </c>
       <c r="B1">
-        <v>2.412941571019317</v>
+        <v>2.626100063323975</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.861844301223755</v>
       </c>
       <c r="D1">
-        <v>2.368628610575455</v>
+        <v>3.013024568557739</v>
       </c>
       <c r="E1">
-        <v>1.221746176291119</v>
+        <v>0.9806374907493591</v>
       </c>
     </row>
   </sheetData>
